--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3745.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3745.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3745</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ranasinghe Arachchige Suranga Lakmal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/12/2009</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3063</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>24/12/2009</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3066</t>
+          <t>3066</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -636,7 +698,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/01/2010</t>
@@ -644,7 +705,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -684,7 +745,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>05/01/2010</t>
@@ -692,7 +752,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/07/2011</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -884,7 +943,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>03/07/2011</t>
@@ -892,7 +950,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3311</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3348</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1256,7 +1314,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1354,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>31/07/2013</t>
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1465,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1505,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>27/12/2013</t>
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1496,7 +1552,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>22/02/2014</t>
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1544,7 +1599,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>25/02/2014</t>
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1646,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>03/03/2014</t>
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1640,7 +1693,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>06/03/2014</t>
@@ -1648,7 +1700,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1688,7 +1740,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>08/03/2014</t>
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1736,7 +1787,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>06/05/2014</t>
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1846,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1836,7 +1886,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>13/12/2014</t>
@@ -1844,7 +1893,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1884,7 +1933,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>16/12/2014</t>
@@ -1892,7 +1940,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1944,7 +1992,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1996,7 +2044,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2048,7 +2096,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2136,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/02/2015</t>
@@ -2096,7 +2143,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2136,7 +2183,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -2144,7 +2190,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2184,7 +2230,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -2192,7 +2237,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2232,7 +2277,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>11/07/2015</t>
@@ -2240,7 +2284,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2292,7 +2336,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2332,7 +2376,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>26/07/2015</t>
@@ -2340,7 +2383,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2392,7 +2435,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2432,7 +2475,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>04/11/2015</t>
@@ -2440,7 +2482,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2480,7 +2522,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>07/11/2015</t>
@@ -2488,7 +2529,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2540,7 +2581,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2580,7 +2621,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>18/06/2016</t>
@@ -2588,7 +2628,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2640,7 +2680,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2680,7 +2720,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -2688,7 +2727,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2740,7 +2779,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2780,7 +2819,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -2788,7 +2826,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2840,7 +2878,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2892,7 +2930,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2932,7 +2970,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>14/11/2016</t>
@@ -2940,7 +2977,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3959</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2992,7 +3029,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3032,7 +3069,6 @@
           <t>52</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -3040,7 +3076,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3962</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3080,7 +3116,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>23/11/2016</t>
@@ -3088,7 +3123,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3128,7 +3163,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>27/11/2016</t>
@@ -3136,7 +3170,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3965</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3188,7 +3222,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3240,7 +3274,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3292,7 +3326,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3344,7 +3378,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3396,7 +3430,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3448,7 +3482,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4012</t>
+          <t>4012</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3500,7 +3534,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3552,7 +3586,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3592,7 +3626,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -3600,7 +3633,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3652,7 +3685,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3704,7 +3737,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3756,7 +3789,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3808,7 +3841,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3848,7 +3881,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -3856,7 +3888,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3908,7 +3940,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3960,7 +3992,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4012,7 +4044,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4064,7 +4096,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4104,7 +4136,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -4112,7 +4143,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4152,7 +4183,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -4160,7 +4190,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4212,7 +4242,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4264,7 +4294,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4316,7 +4346,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4368,7 +4398,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4408,7 +4438,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>08/08/2018</t>
@@ -4416,7 +4445,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4456,7 +4485,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>12/08/2018</t>
@@ -4464,7 +4492,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4516,7 +4544,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4568,7 +4596,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4620,7 +4648,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4672,7 +4700,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4724,7 +4752,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4764,7 +4792,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -4772,7 +4799,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4811,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4833,7 +4860,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4870,7 +4897,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3063</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4907,7 +4934,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3065</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4944,7 +4971,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3067</t>
+          <t>3067</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4981,7 +5008,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3068</t>
+          <t>3068</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5018,7 +5045,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3071</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -5055,7 +5082,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -5092,7 +5119,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -5129,7 +5156,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -5166,7 +5193,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -5203,7 +5230,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3311</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -5240,7 +5267,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3348</t>
+          <t>3348</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -5277,7 +5304,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3395</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -5314,7 +5341,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3396</t>
+          <t>3396</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -5351,7 +5378,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3401</t>
+          <t>3401</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -5388,7 +5415,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3530</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5425,7 +5452,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5462,7 +5489,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -5499,7 +5526,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5536,7 +5563,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -5573,7 +5600,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3616</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5610,7 +5637,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5647,7 +5674,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5684,7 +5711,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3630</t>
+          <t>3630</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5721,7 +5748,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3631</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5758,7 +5785,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3635</t>
+          <t>3635</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5795,7 +5822,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5832,7 +5859,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5869,7 +5896,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5906,7 +5933,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5943,7 +5970,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3739</t>
+          <t>3739</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5980,7 +6007,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6017,7 +6044,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6054,7 +6081,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3765</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6091,7 +6118,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6128,7 +6155,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3814</t>
+          <t>3814</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6165,7 +6192,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3821</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6202,7 +6229,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3822</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -6239,7 +6266,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3852</t>
+          <t>3852</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -6276,7 +6303,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3853</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -6313,7 +6340,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3855</t>
+          <t>3855</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -6350,7 +6377,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3865</t>
+          <t>3865</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -6387,7 +6414,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3902</t>
+          <t>3902</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -6424,7 +6451,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -6461,7 +6488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6498,7 +6525,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6535,7 +6562,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6572,7 +6599,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6609,7 +6636,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3931</t>
+          <t>3931</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6646,7 +6673,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3959</t>
+          <t>3959</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6683,7 +6710,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3960</t>
+          <t>3960</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6720,7 +6747,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3962</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6757,7 +6784,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3963</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6794,7 +6821,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3965</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6831,7 +6858,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6868,7 +6895,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6905,7 +6932,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6942,7 +6969,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6979,7 +7006,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4011</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -7016,7 +7043,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4014</t>
+          <t>4014</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -7053,7 +7080,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -7090,7 +7117,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -7127,7 +7154,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4044</t>
+          <t>4044</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -7164,7 +7191,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -7201,7 +7228,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -7238,7 +7265,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4084</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -7275,7 +7302,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4096</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -7312,7 +7339,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4098</t>
+          <t>4098</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -7349,7 +7376,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4099</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -7386,7 +7413,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4112</t>
+          <t>4112</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -7423,7 +7450,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4116</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7460,7 +7487,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4119</t>
+          <t>4119</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7497,7 +7524,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4122</t>
+          <t>4122</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7534,7 +7561,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4124</t>
+          <t>4124</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7571,7 +7598,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7608,7 +7635,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7645,7 +7672,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7682,7 +7709,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4187</t>
+          <t>4187</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7719,7 +7746,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4188</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7756,7 +7783,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4193</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7793,7 +7820,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4302</t>
+          <t>4302</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -7830,7 +7857,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4305</t>
+          <t>4305</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -7867,7 +7894,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4309</t>
+          <t>4309</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -7904,7 +7931,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -7941,7 +7968,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4451</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -7967,6 +7994,541 @@
       <c r="G85" t="inlineStr">
         <is>
           <t>2/56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>13.29%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4187</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16.13%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.15%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.46%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3745.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3745.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8087,9 +8088,6 @@
       <c r="B3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>YES</t>
@@ -8102,15 +8100,482 @@
           <t>4098</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4112</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4119</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4122</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4124</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4182</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4183</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4186</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4187</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4188</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16.13%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4302</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4305</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5.15%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4309</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.46%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.46%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4451</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4084</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8118,29 +8583,12 @@
           <t>4099</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8148,27 +8596,14 @@
           <t>4112</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.80%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8178,29 +8613,12 @@
           <t>4116</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.64%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8208,17 +8626,12 @@
           <t>4119</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8226,17 +8639,8 @@
           <t>4122</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8244,29 +8648,12 @@
           <t>4124</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.90%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8274,27 +8661,14 @@
           <t>4182</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.59%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8306,13 +8680,6 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8320,29 +8687,12 @@
           <t>4186</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8350,15 +8700,14 @@
           <t>4187</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -8370,13 +8719,6 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8384,27 +8726,14 @@
           <t>4193</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>9</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.13%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -8416,13 +8745,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8430,29 +8752,12 @@
           <t>4305</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.15%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8460,29 +8765,12 @@
           <t>4309</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.46%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8490,29 +8778,12 @@
           <t>4339</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.46%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8520,15 +8791,14 @@
           <t>4451</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_3745.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_3745.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>18/12/2009</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>24/12/2009</t>
@@ -652,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>27/12/2009</t>
@@ -699,6 +700,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>04/01/2010</t>
@@ -746,6 +748,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>05/01/2010</t>
@@ -897,6 +900,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>01/07/2011</t>
@@ -944,6 +948,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>03/07/2011</t>
@@ -1355,6 +1360,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>31/07/2013</t>
@@ -1506,6 +1512,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>27/12/2013</t>
@@ -1553,6 +1560,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>22/02/2014</t>
@@ -1600,6 +1608,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>25/02/2014</t>
@@ -1647,6 +1656,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>03/03/2014</t>
@@ -1694,6 +1704,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>06/03/2014</t>
@@ -1741,6 +1752,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>08/03/2014</t>
@@ -1788,6 +1800,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>06/05/2014</t>
@@ -1887,6 +1900,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>13/12/2014</t>
@@ -1934,6 +1948,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>16/12/2014</t>
@@ -2137,6 +2152,7 @@
           <t>33</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>22/02/2015</t>
@@ -2184,6 +2200,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>26/02/2015</t>
@@ -2231,6 +2248,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -2278,6 +2296,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>11/07/2015</t>
@@ -2377,6 +2396,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>26/07/2015</t>
@@ -2476,6 +2496,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>04/11/2015</t>
@@ -2523,6 +2544,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>07/11/2015</t>
@@ -2622,6 +2644,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>18/06/2016</t>
@@ -2721,6 +2744,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -2820,6 +2844,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>29/06/2016</t>
@@ -2971,6 +2996,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>14/11/2016</t>
@@ -3070,6 +3096,7 @@
           <t>52</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -3082,7 +3109,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3117,6 +3144,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>23/11/2016</t>
@@ -3164,6 +3192,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>27/11/2016</t>
@@ -3627,6 +3656,7 @@
           <t>63</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -3882,6 +3912,7 @@
           <t>68</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>10/12/2017</t>
@@ -4137,6 +4168,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>21/01/2018</t>
@@ -4184,6 +4216,7 @@
           <t>74</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>25/01/2018</t>
@@ -4439,6 +4472,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>08/08/2018</t>
@@ -4486,6 +4520,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>12/08/2018</t>
@@ -4793,6 +4828,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/03/2021</t>
@@ -8001,808 +8037,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4084</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13.29%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4096</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>9</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4099</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4112</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.80%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4116</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.64%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.90%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.59%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4183</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4186</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.21%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4187</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4188</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4193</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.13%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5.15%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.46%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.46%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>9</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4084</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4096</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4098</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4099</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4112</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4116</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4119</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4122</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4124</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4182</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4183</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4186</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4187</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4188</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4193</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4302</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4305</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4309</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4451</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>